--- a/src/test/java/dataEngine/WO Track Renewals 4.xlsx
+++ b/src/test/java/dataEngine/WO Track Renewals 4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>openBrowser</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
   </si>
   <si>
     <t>login</t>
@@ -404,6 +401,9 @@
   <si>
     <t>mxsvcemgr1</t>
   </si>
+  <si>
+    <t>Chrome</t>
+  </si>
 </sst>
 </file>
 
@@ -567,8 +567,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -866,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,14 +942,14 @@
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="38">
@@ -931,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="23"/>
@@ -940,230 +968,230 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="38" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10"/>
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11"/>
       <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="38">
         <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="38">
         <v>1</v>
@@ -1173,21 +1201,21 @@
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="H13" s="38" t="b">
         <v>0</v>
@@ -1196,21 +1224,21 @@
     </row>
     <row r="14" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="38" t="b">
         <v>1</v>
@@ -1219,21 +1247,21 @@
     </row>
     <row r="15" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="38" t="b">
         <v>0</v>
@@ -1242,21 +1270,21 @@
     </row>
     <row r="16" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="38" t="b">
         <v>0</v>
@@ -1265,21 +1293,21 @@
     </row>
     <row r="17" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="38" t="b">
         <v>0</v>
@@ -1288,21 +1316,21 @@
     </row>
     <row r="18" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="38" t="b">
         <v>0</v>
@@ -17683,21 +17711,21 @@
     </row>
     <row r="19" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="38" t="b">
         <v>0</v>
@@ -17706,21 +17734,21 @@
     </row>
     <row r="20" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="38" t="b">
         <v>0</v>
@@ -17729,68 +17757,68 @@
     </row>
     <row r="21" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21"/>
       <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="38" t="b">
         <v>1</v>
@@ -17799,21 +17827,21 @@
     </row>
     <row r="24" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="38">
         <v>1</v>
@@ -17822,21 +17850,21 @@
     </row>
     <row r="25" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="38">
         <v>1</v>
@@ -17845,44 +17873,44 @@
     </row>
     <row r="26" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="35" t="s">
-        <v>27</v>
-      </c>
       <c r="H26" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="38">
         <v>1</v>
@@ -17891,21 +17919,21 @@
     </row>
     <row r="28" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="38">
         <v>1</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="38">
         <v>1</v>
@@ -17914,21 +17942,21 @@
     </row>
     <row r="29" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="38">
         <v>1</v>
@@ -17937,159 +17965,159 @@
     </row>
     <row r="30" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:16384" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>39</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="I33"/>
     </row>
     <row r="34" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="38">
         <v>1</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="38">
         <v>1</v>
@@ -18098,21 +18126,21 @@
     </row>
     <row r="37" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="H37" s="38" t="b">
         <v>0</v>
@@ -18121,21 +18149,21 @@
     </row>
     <row r="38" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="38" t="b">
         <v>1</v>
@@ -18144,21 +18172,21 @@
     </row>
     <row r="39" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" s="38" t="b">
         <v>1</v>
@@ -18167,21 +18195,21 @@
     </row>
     <row r="40" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" s="38" t="b">
         <v>1</v>
@@ -18190,21 +18218,21 @@
     </row>
     <row r="41" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" s="38" t="b">
         <v>1</v>
@@ -18213,21 +18241,21 @@
     </row>
     <row r="42" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="38" t="b">
         <v>1</v>
@@ -18236,21 +18264,21 @@
     </row>
     <row r="43" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="38" t="b">
         <v>1</v>
@@ -18259,67 +18287,67 @@
     </row>
     <row r="44" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I44"/>
     </row>
     <row r="45" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="I45"/>
     </row>
     <row r="46" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H46" s="38" t="b">
         <v>1</v>
@@ -18328,21 +18356,21 @@
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="35"/>
       <c r="F47" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="38">
         <v>1</v>
@@ -18351,21 +18379,21 @@
     </row>
     <row r="48" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="35"/>
       <c r="F48" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="38">
         <v>1</v>
@@ -18374,44 +18402,44 @@
     </row>
     <row r="49" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="35" t="s">
-        <v>27</v>
-      </c>
       <c r="H49" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="38">
         <v>1</v>
@@ -18420,21 +18448,21 @@
     </row>
     <row r="51" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="35"/>
       <c r="F51" s="38">
         <v>1</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H51" s="38">
         <v>1</v>
@@ -18444,21 +18472,21 @@
     </row>
     <row r="52" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" s="38">
         <v>1</v>
@@ -18470,24 +18498,24 @@
     </row>
     <row r="53" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I53"/>
       <c r="J53" s="27"/>
@@ -18495,24 +18523,24 @@
     </row>
     <row r="54" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I54"/>
       <c r="J54" s="27"/>
@@ -18520,24 +18548,24 @@
     </row>
     <row r="55" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="35"/>
       <c r="F55" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55"/>
       <c r="J55" s="27"/>
@@ -18545,24 +18573,24 @@
     </row>
     <row r="56" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="35"/>
       <c r="D56" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="35"/>
       <c r="F56" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="38" t="s">
         <v>39</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="I56"/>
       <c r="J56" s="27"/>
@@ -18570,24 +18598,24 @@
     </row>
     <row r="57" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="35"/>
       <c r="F57" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I57"/>
       <c r="J57" s="27"/>
@@ -18595,24 +18623,24 @@
     </row>
     <row r="58" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" s="35"/>
       <c r="F58" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I58"/>
       <c r="J58" s="27"/>
@@ -18620,21 +18648,21 @@
     </row>
     <row r="59" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="35"/>
       <c r="F59" s="38">
         <v>1</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="38">
         <v>1</v>
@@ -18645,21 +18673,21 @@
     </row>
     <row r="60" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="35"/>
       <c r="F60" s="38">
         <v>1</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H60" s="38">
         <v>1</v>
@@ -18670,24 +18698,24 @@
     </row>
     <row r="61" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="35"/>
       <c r="F61" s="38">
         <v>1</v>
       </c>
       <c r="G61" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>125</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="34"/>
@@ -18695,21 +18723,21 @@
     </row>
     <row r="62" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="H62" s="38" t="b">
         <v>1</v>
@@ -18720,21 +18748,21 @@
     </row>
     <row r="63" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" s="38" t="b">
         <v>1</v>
@@ -18745,21 +18773,21 @@
     </row>
     <row r="64" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64" s="35"/>
       <c r="F64" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" s="38" t="b">
         <v>1</v>
@@ -18770,21 +18798,21 @@
     </row>
     <row r="65" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" s="38" t="b">
         <v>1</v>
@@ -18795,21 +18823,21 @@
     </row>
     <row r="66" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" s="35"/>
       <c r="F66" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" s="38" t="b">
         <v>1</v>
@@ -18820,21 +18848,21 @@
     </row>
     <row r="67" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" s="38" t="b">
         <v>1</v>
@@ -18845,21 +18873,21 @@
     </row>
     <row r="68" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" s="38" t="b">
         <v>1</v>
@@ -18869,69 +18897,69 @@
     </row>
     <row r="69" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" s="35"/>
       <c r="F69" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I69"/>
       <c r="J69" s="27"/>
     </row>
     <row r="70" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="34"/>
       <c r="D70" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" s="35"/>
       <c r="F70" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="I70"/>
       <c r="J70" s="27"/>
     </row>
     <row r="71" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" s="34"/>
       <c r="D71" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" s="35"/>
       <c r="F71" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H71" s="38" t="b">
         <v>1</v>
@@ -18941,21 +18969,21 @@
     </row>
     <row r="72" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" s="28"/>
       <c r="D72" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="34"/>
       <c r="F72" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H72" s="38">
         <v>1</v>
@@ -18965,21 +18993,21 @@
     </row>
     <row r="73" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="28"/>
       <c r="D73" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="38">
         <v>1</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="38">
         <v>1</v>
